--- a/constans/convince_ar.xlsx
+++ b/constans/convince_ar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S I N O\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\course\Projects\مستقل\joodah\quiz-main\backend\constans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF542755-C37D-493C-8D46-08F788C9D272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224AFA02-7A78-4040-8C8E-FAD97EE6FC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1735,7 +1735,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2048,19 +2048,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="144" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="186.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="114.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.44140625" customWidth="1"/>
+    <col min="4" max="4" width="186.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
